--- a/docs_iniciales/prueba.xlsx
+++ b/docs_iniciales/prueba.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft5167433-my.sharepoint.com/personal/jauatrer_tads_com_co/Documents/TECNOLOGÍA/GENERAR ORGANIGRAMA KPIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft5167433-my.sharepoint.com/personal/mfuquene_tads_com_co/Documents/Escritorio/Organigrama KPIs/docs_iniciales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{564F41E0-5813-4ECD-BBF4-BF08FE283E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2CA184-9E0C-48AE-AEA4-FD7E4E0EC1C9}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{564F41E0-5813-4ECD-BBF4-BF08FE283E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD4A8176-0224-4D3F-B477-6A3B85BA5CDE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="936" yWindow="936" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPIs!$A$1:$O$173</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="643">
   <si>
     <t>Indicador</t>
   </si>
@@ -2033,7 +2034,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2335,29 +2347,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="44" customWidth="1"/>
-    <col min="15" max="15" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2507,7 +2519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2807,7 +2819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3007,7 +3019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3307,7 +3319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3407,7 +3419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3607,7 +3619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -3757,7 +3769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4157,7 +4169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -4307,7 +4319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4507,7 +4519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -4857,7 +4869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -4907,7 +4919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -5007,7 +5019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -5057,7 +5069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -5107,7 +5119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -5157,7 +5169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -5207,7 +5219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -5257,7 +5269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -5357,7 +5369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -5407,7 +5419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -5457,7 +5469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -5557,7 +5569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -5607,7 +5619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -5657,7 +5669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -5707,7 +5719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -5757,7 +5769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -5807,7 +5819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -5857,7 +5869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -5907,7 +5919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -5957,7 +5969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -6057,7 +6069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -6157,7 +6169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -6207,7 +6219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -6257,7 +6269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -6357,7 +6369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -6407,7 +6419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -6457,7 +6469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -6557,7 +6569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -6607,7 +6619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -6657,7 +6669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>53</v>
       </c>
@@ -6707,7 +6719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -6757,7 +6769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -6807,7 +6819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -6857,7 +6869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -6907,7 +6919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -6957,7 +6969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -7007,7 +7019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>74</v>
       </c>
@@ -7057,7 +7069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -7107,7 +7119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -7157,7 +7169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>78</v>
       </c>
@@ -7207,7 +7219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -7257,7 +7269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -7307,7 +7319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>88</v>
       </c>
@@ -7357,7 +7369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>89</v>
       </c>
@@ -7407,7 +7419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>90</v>
       </c>
@@ -7457,7 +7469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -7507,7 +7519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -7557,7 +7569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -7607,7 +7619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -7657,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -7707,7 +7719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>96</v>
       </c>
@@ -7757,7 +7769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -7807,7 +7819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -7857,7 +7869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>97</v>
       </c>
@@ -7907,7 +7919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>75</v>
       </c>
@@ -7957,7 +7969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -8007,7 +8019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -8057,7 +8069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>72</v>
       </c>
@@ -8107,7 +8119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -8157,7 +8169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -8207,7 +8219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>100</v>
       </c>
@@ -8257,7 +8269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>35</v>
       </c>
@@ -8307,7 +8319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>101</v>
       </c>
@@ -8357,7 +8369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>102</v>
       </c>
@@ -8407,7 +8419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>71</v>
       </c>
@@ -8457,7 +8469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -8507,7 +8519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>103</v>
       </c>
@@ -8557,7 +8569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -8607,7 +8619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>101</v>
       </c>
@@ -8657,7 +8669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>100</v>
       </c>
@@ -8707,7 +8719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -8757,7 +8769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>41</v>
       </c>
@@ -8807,7 +8819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>104</v>
       </c>
@@ -8857,7 +8869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>105</v>
       </c>
@@ -8907,7 +8919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>46</v>
       </c>
@@ -8957,7 +8969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>106</v>
       </c>
@@ -9007,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>104</v>
       </c>
@@ -9057,7 +9069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>46</v>
       </c>
@@ -9107,7 +9119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>107</v>
       </c>
@@ -9157,7 +9169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -9207,7 +9219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>32</v>
       </c>
@@ -9257,7 +9269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -9307,7 +9319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>109</v>
       </c>
@@ -9357,7 +9369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>110</v>
       </c>
@@ -9407,7 +9419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>111</v>
       </c>
@@ -9457,7 +9469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -9507,7 +9519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>113</v>
       </c>
@@ -9557,7 +9569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>114</v>
       </c>
@@ -9607,7 +9619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>83</v>
       </c>
@@ -9657,7 +9669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>115</v>
       </c>
@@ -9707,7 +9719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>80</v>
       </c>
@@ -9758,7 +9770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>116</v>
       </c>
@@ -9808,7 +9820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>117</v>
       </c>
@@ -9858,7 +9870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>87</v>
       </c>
@@ -9908,7 +9920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>118</v>
       </c>
@@ -9958,7 +9970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -10008,7 +10020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>120</v>
       </c>
@@ -10058,7 +10070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -10108,7 +10120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -10158,7 +10170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>121</v>
       </c>
@@ -10208,7 +10220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>122</v>
       </c>
@@ -10258,7 +10270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>123</v>
       </c>
@@ -10308,7 +10320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>124</v>
       </c>
@@ -10358,7 +10370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>125</v>
       </c>
@@ -10408,7 +10420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>122</v>
       </c>
@@ -10458,7 +10470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>126</v>
       </c>
@@ -10508,7 +10520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>127</v>
       </c>
@@ -10558,7 +10570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>128</v>
       </c>
@@ -10608,7 +10620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>30</v>
       </c>
@@ -10658,7 +10670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -10708,7 +10720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>129</v>
       </c>
@@ -10758,7 +10770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>130</v>
       </c>
@@ -10808,7 +10820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -10858,7 +10870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>80</v>
       </c>
@@ -10908,7 +10920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>131</v>
       </c>
@@ -10958,7 +10970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>132</v>
       </c>
@@ -11015,6 +11027,889 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D6946A-27A3-4473-BBD7-AFD2AADD0788}">
+  <dimension ref="A1:A173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A173">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6210E59-6336-4579-B845-2C53A07A6408}">
   <dimension ref="A1:A45"/>
   <sheetViews>
@@ -11022,229 +11917,229 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>385</v>
       </c>

--- a/docs_iniciales/prueba.xlsx
+++ b/docs_iniciales/prueba.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{564F41E0-5813-4ECD-BBF4-BF08FE283E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD4A8176-0224-4D3F-B477-6A3B85BA5CDE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="936" yWindow="936" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" r:id="rId1"/>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11913,8 +11913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6210E59-6336-4579-B845-2C53A07A6408}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
